--- a/Final_results/INSEE_rolling_Text_2020.xlsx
+++ b/Final_results/INSEE_rolling_Text_2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -779,27 +779,19 @@
     <t xml:space="preserve">-4.0 (70)</t>
   </si>
   <si>
-    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, giving a speech about the economic outlook of France. Today is 12 January 2021. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 12 January 2021, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
+    <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, and you are giving a speech about the economic outlook of France. Today is 12 January 2021. Using ONLY information that was available on or before 12 January 2021, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the fourth quarter of 2020 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
 &lt;forecast&gt; (&lt;confidence&gt;)
 Example: +0.3 (80)
 Do NOT use any information published after 12 January 2021.</t>
   </si>
   <si>
-    <t xml:space="preserve">-4.5 (85)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
--1.3 (90)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.5 (75)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
--4.0 (85)</t>
-  </si>
-  <si>
     <t xml:space="preserve">-4.0 (85)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.0 (60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.0 (75)</t>
   </si>
   <si>
     <t xml:space="preserve">Forget the previous instructions and answers. You are Jean-Luc Tavernier, Director General of INSEE, giving a speech about the economic outlook of France. Today is 08 February 2021. You will be provided with a document with information about the current state and recent past of the French economy. Using ONLY the information in that document and information that was available on or before 08 February 2021, provide a numeric forecast (decimal percent with sign, e.g., +0.3) for French real GDP growth in the first quarter of 2021 and a confidence level (integer 0–100). Output EXACTLY in this format on a single line (no extra text):
@@ -8638,7 +8630,7 @@
         <v>182</v>
       </c>
       <c r="C73" t="n">
-        <v>-4.5</v>
+        <v>-4</v>
       </c>
       <c r="D73" t="n">
         <v>85</v>
@@ -8647,7 +8639,7 @@
         <v>183</v>
       </c>
       <c r="F73" t="n">
-        <v>-4.5</v>
+        <v>-4</v>
       </c>
       <c r="G73" t="n">
         <v>85</v>
@@ -8656,22 +8648,22 @@
         <v>183</v>
       </c>
       <c r="I73" t="n">
-        <v>-1.3</v>
+        <v>-4</v>
       </c>
       <c r="J73" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L73" t="n">
-        <v>-1.5</v>
+        <v>-4</v>
       </c>
       <c r="M73" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="N73" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O73" t="n">
         <v>-4</v>
@@ -8680,52 +8672,52 @@
         <v>85</v>
       </c>
       <c r="Q73" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="R73" t="n">
-        <v>-2.5</v>
+        <v>-4</v>
       </c>
       <c r="S73" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="T73" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="U73" t="n">
-        <v>-2.5</v>
+        <v>-4</v>
       </c>
       <c r="V73" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="W73" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="X73" t="n">
         <v>-4</v>
       </c>
       <c r="Y73" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Z73" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AA73" t="n">
         <v>-4</v>
       </c>
       <c r="AB73" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AC73" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AD73" t="n">
         <v>-4</v>
       </c>
       <c r="AE73" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF73" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74">
@@ -8733,7 +8725,7 @@
         <v>44235</v>
       </c>
       <c r="B74" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C74" t="n">
         <v>0.5</v>
@@ -8742,7 +8734,7 @@
         <v>60</v>
       </c>
       <c r="E74" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F74" t="n">
         <v>-0.1</v>
@@ -8751,7 +8743,7 @@
         <v>55</v>
       </c>
       <c r="H74" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I74" t="n">
         <v>-0.1</v>
@@ -8760,7 +8752,7 @@
         <v>55</v>
       </c>
       <c r="K74" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L74" t="n">
         <v>-0.1</v>
@@ -8769,7 +8761,7 @@
         <v>55</v>
       </c>
       <c r="N74" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O74" t="n">
         <v>-0.1</v>
@@ -8778,7 +8770,7 @@
         <v>55</v>
       </c>
       <c r="Q74" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R74" t="n">
         <v>-0.2</v>
@@ -8787,7 +8779,7 @@
         <v>55</v>
       </c>
       <c r="T74" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="U74" t="n">
         <v>-0.2</v>
@@ -8796,7 +8788,7 @@
         <v>55</v>
       </c>
       <c r="W74" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="X74" t="n">
         <v>-0.1</v>
@@ -8805,7 +8797,7 @@
         <v>55</v>
       </c>
       <c r="Z74" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA74" t="n">
         <v>-0.1</v>
@@ -8814,7 +8806,7 @@
         <v>55</v>
       </c>
       <c r="AC74" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AD74" t="n">
         <v>-0.1</v>
@@ -8823,7 +8815,7 @@
         <v>55</v>
       </c>
       <c r="AF74" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75">
@@ -8831,7 +8823,7 @@
         <v>44262</v>
       </c>
       <c r="B75" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C75" t="n">
         <v>-0.1</v>
@@ -8840,7 +8832,7 @@
         <v>65</v>
       </c>
       <c r="E75" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F75" t="n">
         <v>-0.1</v>
@@ -8849,7 +8841,7 @@
         <v>65</v>
       </c>
       <c r="H75" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I75" t="n">
         <v>-0.1</v>
@@ -8858,7 +8850,7 @@
         <v>65</v>
       </c>
       <c r="K75" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L75" t="n">
         <v>-0.1</v>
@@ -8867,7 +8859,7 @@
         <v>65</v>
       </c>
       <c r="N75" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O75" t="n">
         <v>-0.1</v>
@@ -8876,7 +8868,7 @@
         <v>65</v>
       </c>
       <c r="Q75" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R75" t="n">
         <v>-0.2</v>
@@ -8885,7 +8877,7 @@
         <v>60</v>
       </c>
       <c r="T75" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="U75" t="n">
         <v>-0.2</v>
@@ -8894,7 +8886,7 @@
         <v>60</v>
       </c>
       <c r="W75" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="X75" t="n">
         <v>0.1</v>
@@ -8929,7 +8921,7 @@
         <v>44297</v>
       </c>
       <c r="B76" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C76" t="n">
         <v>0.3</v>
@@ -9027,7 +9019,7 @@
         <v>44325</v>
       </c>
       <c r="B77" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -9063,7 +9055,7 @@
         <v>60</v>
       </c>
       <c r="N77" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -9072,7 +9064,7 @@
         <v>60</v>
       </c>
       <c r="Q77" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R77" t="n">
         <v>0.1</v>
@@ -9099,7 +9091,7 @@
         <v>60</v>
       </c>
       <c r="Z77" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AA77" t="n">
         <v>0.5</v>
@@ -9108,7 +9100,7 @@
         <v>60</v>
       </c>
       <c r="AC77" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AD77" t="n">
         <v>0.5</v>
@@ -9117,7 +9109,7 @@
         <v>60</v>
       </c>
       <c r="AF77" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78">
@@ -9125,7 +9117,7 @@
         <v>44360</v>
       </c>
       <c r="B78" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C78" t="n">
         <v>0.8</v>
@@ -9134,7 +9126,7 @@
         <v>85</v>
       </c>
       <c r="E78" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F78" t="n">
         <v>0.8</v>
@@ -9143,7 +9135,7 @@
         <v>85</v>
       </c>
       <c r="H78" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I78" t="n">
         <v>0.8</v>
@@ -9152,7 +9144,7 @@
         <v>85</v>
       </c>
       <c r="K78" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L78" t="n">
         <v>0.8</v>
@@ -9161,7 +9153,7 @@
         <v>90</v>
       </c>
       <c r="N78" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O78" t="n">
         <v>0.8</v>
@@ -9170,7 +9162,7 @@
         <v>90</v>
       </c>
       <c r="Q78" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="R78" t="n">
         <v>0.7</v>
@@ -9197,7 +9189,7 @@
         <v>85</v>
       </c>
       <c r="Z78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AA78" t="n">
         <v>0.7</v>
@@ -9206,7 +9198,7 @@
         <v>85</v>
       </c>
       <c r="AC78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AD78" t="n">
         <v>0.7</v>
@@ -9215,7 +9207,7 @@
         <v>85</v>
       </c>
       <c r="AF78" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79">
@@ -9223,7 +9215,7 @@
         <v>44383</v>
       </c>
       <c r="B79" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C79" t="n">
         <v>0.8</v>
@@ -9232,7 +9224,7 @@
         <v>85</v>
       </c>
       <c r="E79" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F79" t="n">
         <v>0.8</v>
@@ -9241,7 +9233,7 @@
         <v>85</v>
       </c>
       <c r="H79" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I79" t="n">
         <v>0.8</v>
@@ -9250,7 +9242,7 @@
         <v>85</v>
       </c>
       <c r="K79" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L79" t="n">
         <v>0.7</v>
@@ -9277,7 +9269,7 @@
         <v>85</v>
       </c>
       <c r="T79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U79" t="n">
         <v>0.7</v>
@@ -9286,7 +9278,7 @@
         <v>85</v>
       </c>
       <c r="W79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="X79" t="n">
         <v>0.8</v>
@@ -9295,7 +9287,7 @@
         <v>90</v>
       </c>
       <c r="Z79" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AA79" t="n">
         <v>0.8</v>
@@ -9304,7 +9296,7 @@
         <v>90</v>
       </c>
       <c r="AC79" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AD79" t="n">
         <v>0.8</v>
@@ -9313,7 +9305,7 @@
         <v>90</v>
       </c>
       <c r="AF79" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80">
@@ -9321,7 +9313,7 @@
         <v>44416</v>
       </c>
       <c r="B80" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C80" t="n">
         <v>1.3</v>
@@ -9330,7 +9322,7 @@
         <v>75</v>
       </c>
       <c r="E80" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F80" t="n">
         <v>1.3</v>
@@ -9339,7 +9331,7 @@
         <v>75</v>
       </c>
       <c r="H80" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I80" t="n">
         <v>1.3</v>
@@ -9348,7 +9340,7 @@
         <v>75</v>
       </c>
       <c r="K80" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L80" t="n">
         <v>3.2</v>
@@ -9357,7 +9349,7 @@
         <v>85</v>
       </c>
       <c r="N80" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O80" t="n">
         <v>3.2</v>
@@ -9366,7 +9358,7 @@
         <v>85</v>
       </c>
       <c r="Q80" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="R80" t="n">
         <v>1.3</v>
@@ -9375,7 +9367,7 @@
         <v>75</v>
       </c>
       <c r="T80" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="U80" t="n">
         <v>1.3</v>
@@ -9384,7 +9376,7 @@
         <v>75</v>
       </c>
       <c r="W80" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="X80" t="n">
         <v>2.5</v>
@@ -9393,7 +9385,7 @@
         <v>85</v>
       </c>
       <c r="Z80" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AA80" t="n">
         <v>2.5</v>
@@ -9402,7 +9394,7 @@
         <v>85</v>
       </c>
       <c r="AC80" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AD80" t="n">
         <v>2.5</v>
@@ -9411,7 +9403,7 @@
         <v>85</v>
       </c>
       <c r="AF80" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81">
@@ -9419,7 +9411,7 @@
         <v>44451</v>
       </c>
       <c r="B81" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C81" t="n">
         <v>2.3</v>
@@ -9428,7 +9420,7 @@
         <v>85</v>
       </c>
       <c r="E81" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F81" t="n">
         <v>2.3</v>
@@ -9437,7 +9429,7 @@
         <v>85</v>
       </c>
       <c r="H81" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I81" t="n">
         <v>2.3</v>
@@ -9446,7 +9438,7 @@
         <v>85</v>
       </c>
       <c r="K81" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L81" t="n">
         <v>2.5</v>
@@ -9455,7 +9447,7 @@
         <v>85</v>
       </c>
       <c r="N81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O81" t="n">
         <v>2.5</v>
@@ -9464,7 +9456,7 @@
         <v>85</v>
       </c>
       <c r="Q81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="R81" t="n">
         <v>2.7</v>
@@ -9473,7 +9465,7 @@
         <v>90</v>
       </c>
       <c r="T81" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U81" t="n">
         <v>2.7</v>
@@ -9482,7 +9474,7 @@
         <v>90</v>
       </c>
       <c r="W81" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="X81" t="n">
         <v>2.3</v>
@@ -9491,7 +9483,7 @@
         <v>90</v>
       </c>
       <c r="Z81" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AA81" t="n">
         <v>2.3</v>
@@ -9500,7 +9492,7 @@
         <v>90</v>
       </c>
       <c r="AC81" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AD81" t="n">
         <v>2.3</v>
@@ -9509,7 +9501,7 @@
         <v>90</v>
       </c>
       <c r="AF81" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82">
@@ -9517,7 +9509,7 @@
         <v>44479</v>
       </c>
       <c r="B82" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C82" t="n">
         <v>2.7</v>
@@ -9526,7 +9518,7 @@
         <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F82" t="n">
         <v>2.7</v>
@@ -9535,7 +9527,7 @@
         <v>85</v>
       </c>
       <c r="H82" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I82" t="n">
         <v>2.7</v>
@@ -9544,7 +9536,7 @@
         <v>85</v>
       </c>
       <c r="K82" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L82" t="n">
         <v>2.7</v>
@@ -9553,7 +9545,7 @@
         <v>90</v>
       </c>
       <c r="N82" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O82" t="n">
         <v>2.7</v>
@@ -9562,7 +9554,7 @@
         <v>90</v>
       </c>
       <c r="Q82" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="R82" t="n">
         <v>2.7</v>
@@ -9571,7 +9563,7 @@
         <v>90</v>
       </c>
       <c r="T82" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="U82" t="n">
         <v>2.7</v>
@@ -9580,7 +9572,7 @@
         <v>90</v>
       </c>
       <c r="W82" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="X82" t="n">
         <v>2.3</v>
@@ -9589,7 +9581,7 @@
         <v>75</v>
       </c>
       <c r="Z82" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AA82" t="n">
         <v>2.3</v>
@@ -9598,7 +9590,7 @@
         <v>75</v>
       </c>
       <c r="AC82" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AD82" t="n">
         <v>2.3</v>
@@ -9607,7 +9599,7 @@
         <v>75</v>
       </c>
       <c r="AF82" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83">
@@ -9615,7 +9607,7 @@
         <v>44507</v>
       </c>
       <c r="B83" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C83" t="n">
         <v>0.7</v>
@@ -9624,7 +9616,7 @@
         <v>80</v>
       </c>
       <c r="E83" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F83" t="n">
         <v>0.7</v>
@@ -9633,7 +9625,7 @@
         <v>80</v>
       </c>
       <c r="H83" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I83" t="n">
         <v>0.7</v>
@@ -9642,7 +9634,7 @@
         <v>80</v>
       </c>
       <c r="K83" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L83" t="n">
         <v>0.7</v>
@@ -9651,7 +9643,7 @@
         <v>80</v>
       </c>
       <c r="N83" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O83" t="n">
         <v>0.7</v>
@@ -9660,7 +9652,7 @@
         <v>80</v>
       </c>
       <c r="Q83" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R83" t="n">
         <v>0.7</v>
@@ -9669,7 +9661,7 @@
         <v>75</v>
       </c>
       <c r="T83" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="U83" t="n">
         <v>0.7</v>
@@ -9678,7 +9670,7 @@
         <v>75</v>
       </c>
       <c r="W83" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="X83" t="n">
         <v>0.7</v>
@@ -9687,7 +9679,7 @@
         <v>80</v>
       </c>
       <c r="Z83" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AA83" t="n">
         <v>0.7</v>
@@ -9696,7 +9688,7 @@
         <v>80</v>
       </c>
       <c r="AC83" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AD83" t="n">
         <v>0.7</v>
@@ -9705,7 +9697,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84">
@@ -9713,7 +9705,7 @@
         <v>44536</v>
       </c>
       <c r="B84" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C84" t="n">
         <v>0.6</v>
@@ -9722,7 +9714,7 @@
         <v>65</v>
       </c>
       <c r="E84" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F84" t="n">
         <v>0.6</v>
@@ -9731,7 +9723,7 @@
         <v>65</v>
       </c>
       <c r="H84" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I84" t="n">
         <v>0.6</v>
@@ -9740,7 +9732,7 @@
         <v>65</v>
       </c>
       <c r="K84" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L84" t="n">
         <v>0.7</v>
@@ -9749,7 +9741,7 @@
         <v>75</v>
       </c>
       <c r="N84" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O84" t="n">
         <v>0.7</v>
@@ -9758,7 +9750,7 @@
         <v>75</v>
       </c>
       <c r="Q84" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="R84" t="n">
         <v>0.7</v>
@@ -9767,7 +9759,7 @@
         <v>85</v>
       </c>
       <c r="T84" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U84" t="n">
         <v>0.7</v>
@@ -9776,7 +9768,7 @@
         <v>85</v>
       </c>
       <c r="W84" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="X84" t="n">
         <v>0.5</v>
@@ -9811,7 +9803,7 @@
         <v>44571</v>
       </c>
       <c r="B85" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C85" t="n">
         <v>0.5</v>
@@ -9865,7 +9857,7 @@
         <v>75</v>
       </c>
       <c r="T85" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="U85" t="n">
         <v>0.6</v>
@@ -9874,7 +9866,7 @@
         <v>75</v>
       </c>
       <c r="W85" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="X85" t="n">
         <v>0.6</v>
@@ -9883,7 +9875,7 @@
         <v>75</v>
       </c>
       <c r="Z85" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AA85" t="n">
         <v>0.6</v>
@@ -9892,7 +9884,7 @@
         <v>75</v>
       </c>
       <c r="AC85" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AD85" t="n">
         <v>0.6</v>
@@ -9901,7 +9893,7 @@
         <v>75</v>
       </c>
       <c r="AF85" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86">
@@ -9909,7 +9901,7 @@
         <v>44601</v>
       </c>
       <c r="B86" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C86" t="n">
         <v>0.2</v>
@@ -10007,7 +9999,7 @@
         <v>44632</v>
       </c>
       <c r="B87" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C87" t="n">
         <v>0.3</v>
@@ -10079,7 +10071,7 @@
         <v>40</v>
       </c>
       <c r="Z87" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AA87" t="n">
         <v>0</v>
@@ -10088,7 +10080,7 @@
         <v>40</v>
       </c>
       <c r="AC87" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AD87" t="n">
         <v>0</v>
@@ -10097,7 +10089,7 @@
         <v>40</v>
       </c>
       <c r="AF87" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="88">
@@ -10105,7 +10097,7 @@
         <v>44662</v>
       </c>
       <c r="B88" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C88" t="n">
         <v>0.1</v>
@@ -10114,7 +10106,7 @@
         <v>55</v>
       </c>
       <c r="E88" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F88" t="n">
         <v>0.1</v>
@@ -10123,7 +10115,7 @@
         <v>55</v>
       </c>
       <c r="H88" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I88" t="n">
         <v>0.1</v>
@@ -10132,7 +10124,7 @@
         <v>55</v>
       </c>
       <c r="K88" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -10141,7 +10133,7 @@
         <v>60</v>
       </c>
       <c r="N88" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
@@ -10150,7 +10142,7 @@
         <v>60</v>
       </c>
       <c r="Q88" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -10159,7 +10151,7 @@
         <v>40</v>
       </c>
       <c r="T88" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="U88" t="n">
         <v>0</v>
@@ -10168,7 +10160,7 @@
         <v>40</v>
       </c>
       <c r="W88" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="X88" t="n">
         <v>0</v>
@@ -10177,7 +10169,7 @@
         <v>60</v>
       </c>
       <c r="Z88" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AA88" t="n">
         <v>0</v>
@@ -10186,7 +10178,7 @@
         <v>60</v>
       </c>
       <c r="AC88" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AD88" t="n">
         <v>0</v>
@@ -10195,7 +10187,7 @@
         <v>60</v>
       </c>
       <c r="AF88" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89">
@@ -10203,7 +10195,7 @@
         <v>44691</v>
       </c>
       <c r="B89" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C89" t="n">
         <v>0.2</v>
@@ -10212,7 +10204,7 @@
         <v>45</v>
       </c>
       <c r="E89" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F89" t="n">
         <v>0.2</v>
@@ -10221,7 +10213,7 @@
         <v>45</v>
       </c>
       <c r="H89" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I89" t="n">
         <v>0.2</v>
@@ -10230,7 +10222,7 @@
         <v>45</v>
       </c>
       <c r="K89" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L89" t="n">
         <v>0.2</v>
@@ -10257,7 +10249,7 @@
         <v>45</v>
       </c>
       <c r="T89" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="U89" t="n">
         <v>0.2</v>
@@ -10266,7 +10258,7 @@
         <v>45</v>
       </c>
       <c r="W89" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="X89" t="n">
         <v>0.2</v>
@@ -10301,7 +10293,7 @@
         <v>44725</v>
       </c>
       <c r="B90" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C90" t="n">
         <v>0.2</v>
@@ -10399,7 +10391,7 @@
         <v>44753</v>
       </c>
       <c r="B91" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C91" t="n">
         <v>0.2</v>
@@ -10497,7 +10489,7 @@
         <v>44781</v>
       </c>
       <c r="B92" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C92" t="n">
         <v>0.2</v>
@@ -10595,7 +10587,7 @@
         <v>44811</v>
       </c>
       <c r="B93" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C93" t="n">
         <v>0.3</v>
@@ -10693,7 +10685,7 @@
         <v>44843</v>
       </c>
       <c r="B94" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C94" t="n">
         <v>0.3</v>
@@ -10791,7 +10783,7 @@
         <v>44873</v>
       </c>
       <c r="B95" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -10800,7 +10792,7 @@
         <v>60</v>
       </c>
       <c r="E95" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -10809,7 +10801,7 @@
         <v>60</v>
       </c>
       <c r="H95" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -10818,7 +10810,7 @@
         <v>60</v>
       </c>
       <c r="K95" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -10827,7 +10819,7 @@
         <v>45</v>
       </c>
       <c r="N95" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O95" t="n">
         <v>0</v>
@@ -10836,7 +10828,7 @@
         <v>45</v>
       </c>
       <c r="Q95" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="R95" t="n">
         <v>0</v>
@@ -10845,7 +10837,7 @@
         <v>60</v>
       </c>
       <c r="T95" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
@@ -10854,7 +10846,7 @@
         <v>60</v>
       </c>
       <c r="W95" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="X95" t="n">
         <v>0.1</v>
@@ -10863,7 +10855,7 @@
         <v>55</v>
       </c>
       <c r="Z95" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AA95" t="n">
         <v>0.1</v>
@@ -10872,7 +10864,7 @@
         <v>55</v>
       </c>
       <c r="AC95" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AD95" t="n">
         <v>0.1</v>
@@ -10881,7 +10873,7 @@
         <v>55</v>
       </c>
       <c r="AF95" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="96">
@@ -10889,7 +10881,7 @@
         <v>44902</v>
       </c>
       <c r="B96" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -10925,7 +10917,7 @@
         <v>60</v>
       </c>
       <c r="N96" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O96" t="n">
         <v>0</v>
@@ -10934,7 +10926,7 @@
         <v>60</v>
       </c>
       <c r="Q96" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R96" t="n">
         <v>0</v>
@@ -10961,7 +10953,7 @@
         <v>65</v>
       </c>
       <c r="Z96" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AA96" t="n">
         <v>-0.1</v>
@@ -10970,7 +10962,7 @@
         <v>65</v>
       </c>
       <c r="AC96" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AD96" t="n">
         <v>-0.1</v>
@@ -10979,7 +10971,7 @@
         <v>65</v>
       </c>
       <c r="AF96" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97">
@@ -10987,7 +10979,7 @@
         <v>44936</v>
       </c>
       <c r="B97" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C97" t="n">
         <v>0.1</v>
@@ -11059,7 +11051,7 @@
         <v>70</v>
       </c>
       <c r="Z97" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AA97" t="n">
         <v>0.1</v>
@@ -11068,7 +11060,7 @@
         <v>70</v>
       </c>
       <c r="AC97" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AD97" t="n">
         <v>0.1</v>
@@ -11077,7 +11069,7 @@
         <v>70</v>
       </c>
       <c r="AF97" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98">
@@ -11085,7 +11077,7 @@
         <v>44964</v>
       </c>
       <c r="B98" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C98" t="n">
         <v>0.2</v>
@@ -11183,7 +11175,7 @@
         <v>44992</v>
       </c>
       <c r="B99" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C99" t="n">
         <v>0.2</v>
@@ -11281,7 +11273,7 @@
         <v>45026</v>
       </c>
       <c r="B100" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C100" t="n">
         <v>0.2</v>
@@ -11317,7 +11309,7 @@
         <v>75</v>
       </c>
       <c r="N100" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O100" t="n">
         <v>0.1</v>
@@ -11326,7 +11318,7 @@
         <v>75</v>
       </c>
       <c r="Q100" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="R100" t="n">
         <v>0.2</v>
@@ -11379,7 +11371,7 @@
         <v>45055</v>
       </c>
       <c r="B101" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C101" t="n">
         <v>0.1</v>
@@ -11415,7 +11407,7 @@
         <v>70</v>
       </c>
       <c r="N101" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O101" t="n">
         <v>0.1</v>
@@ -11424,7 +11416,7 @@
         <v>70</v>
       </c>
       <c r="Q101" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="R101" t="n">
         <v>0.1</v>
@@ -11477,7 +11469,7 @@
         <v>45084</v>
       </c>
       <c r="B102" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C102" t="n">
         <v>0.1</v>
@@ -11513,7 +11505,7 @@
         <v>70</v>
       </c>
       <c r="N102" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O102" t="n">
         <v>0</v>
@@ -11522,7 +11514,7 @@
         <v>70</v>
       </c>
       <c r="Q102" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R102" t="n">
         <v>0.1</v>
@@ -11531,7 +11523,7 @@
         <v>70</v>
       </c>
       <c r="T102" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="U102" t="n">
         <v>0.1</v>
@@ -11540,7 +11532,7 @@
         <v>70</v>
       </c>
       <c r="W102" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="X102" t="n">
         <v>0.1</v>
@@ -11575,7 +11567,7 @@
         <v>45116</v>
       </c>
       <c r="B103" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C103" t="n">
         <v>0.1</v>
@@ -11584,7 +11576,7 @@
         <v>70</v>
       </c>
       <c r="E103" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F103" t="n">
         <v>0.1</v>
@@ -11593,7 +11585,7 @@
         <v>70</v>
       </c>
       <c r="H103" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I103" t="n">
         <v>0.1</v>
@@ -11602,7 +11594,7 @@
         <v>70</v>
       </c>
       <c r="K103" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L103" t="n">
         <v>0.1</v>
@@ -11647,7 +11639,7 @@
         <v>70</v>
       </c>
       <c r="Z103" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AA103" t="n">
         <v>0.1</v>
@@ -11656,7 +11648,7 @@
         <v>70</v>
       </c>
       <c r="AC103" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AD103" t="n">
         <v>0.1</v>
@@ -11665,7 +11657,7 @@
         <v>70</v>
       </c>
       <c r="AF103" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="104">
@@ -11673,7 +11665,7 @@
         <v>45146</v>
       </c>
       <c r="B104" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C104" t="n">
         <v>0.1</v>
@@ -11771,7 +11763,7 @@
         <v>45180</v>
       </c>
       <c r="B105" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C105" t="n">
         <v>0.1</v>
@@ -11780,7 +11772,7 @@
         <v>85</v>
       </c>
       <c r="E105" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F105" t="n">
         <v>0.1</v>
@@ -11789,7 +11781,7 @@
         <v>85</v>
       </c>
       <c r="H105" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I105" t="n">
         <v>0.1</v>
@@ -11798,7 +11790,7 @@
         <v>85</v>
       </c>
       <c r="K105" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L105" t="n">
         <v>0.1</v>
@@ -11807,7 +11799,7 @@
         <v>75</v>
       </c>
       <c r="N105" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O105" t="n">
         <v>0.1</v>
@@ -11816,7 +11808,7 @@
         <v>75</v>
       </c>
       <c r="Q105" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="R105" t="n">
         <v>0.1</v>
@@ -11843,7 +11835,7 @@
         <v>85</v>
       </c>
       <c r="Z105" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AA105" t="n">
         <v>0.1</v>
@@ -11852,7 +11844,7 @@
         <v>85</v>
       </c>
       <c r="AC105" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AD105" t="n">
         <v>0.1</v>
@@ -11861,7 +11853,7 @@
         <v>85</v>
       </c>
       <c r="AF105" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106">
@@ -11869,7 +11861,7 @@
         <v>45207</v>
       </c>
       <c r="B106" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C106" t="n">
         <v>0.1</v>
@@ -11878,7 +11870,7 @@
         <v>55</v>
       </c>
       <c r="E106" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F106" t="n">
         <v>0.1</v>
@@ -11887,7 +11879,7 @@
         <v>55</v>
       </c>
       <c r="H106" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I106" t="n">
         <v>0.1</v>
@@ -11896,7 +11888,7 @@
         <v>55</v>
       </c>
       <c r="K106" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L106" t="n">
         <v>0.1</v>
@@ -11923,7 +11915,7 @@
         <v>70</v>
       </c>
       <c r="T106" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="U106" t="n">
         <v>0.1</v>
@@ -11932,7 +11924,7 @@
         <v>70</v>
       </c>
       <c r="W106" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="X106" t="n">
         <v>0.1</v>
@@ -11941,7 +11933,7 @@
         <v>75</v>
       </c>
       <c r="Z106" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AA106" t="n">
         <v>0.1</v>
@@ -11950,7 +11942,7 @@
         <v>75</v>
       </c>
       <c r="AC106" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AD106" t="n">
         <v>0.1</v>
@@ -11959,7 +11951,7 @@
         <v>75</v>
       </c>
       <c r="AF106" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="107">
@@ -11967,7 +11959,7 @@
         <v>45237</v>
       </c>
       <c r="B107" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -11976,7 +11968,7 @@
         <v>60</v>
       </c>
       <c r="E107" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -11985,7 +11977,7 @@
         <v>60</v>
       </c>
       <c r="H107" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -11994,7 +11986,7 @@
         <v>60</v>
       </c>
       <c r="K107" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -12021,7 +12013,7 @@
         <v>65</v>
       </c>
       <c r="T107" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U107" t="n">
         <v>-0.1</v>
@@ -12030,7 +12022,7 @@
         <v>65</v>
       </c>
       <c r="W107" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="X107" t="n">
         <v>-0.1</v>
@@ -12039,7 +12031,7 @@
         <v>75</v>
       </c>
       <c r="Z107" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AA107" t="n">
         <v>-0.1</v>
@@ -12048,7 +12040,7 @@
         <v>75</v>
       </c>
       <c r="AC107" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AD107" t="n">
         <v>-0.1</v>
@@ -12057,7 +12049,7 @@
         <v>75</v>
       </c>
       <c r="AF107" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108">
@@ -12065,7 +12057,7 @@
         <v>45270</v>
       </c>
       <c r="B108" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -12074,7 +12066,7 @@
         <v>75</v>
       </c>
       <c r="E108" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F108"/>
       <c r="G108"/>
@@ -12086,7 +12078,7 @@
         <v>75</v>
       </c>
       <c r="K108" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -12095,7 +12087,7 @@
         <v>70</v>
       </c>
       <c r="N108" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O108"/>
       <c r="P108"/>
@@ -12107,7 +12099,7 @@
         <v>65</v>
       </c>
       <c r="T108" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U108"/>
       <c r="V108"/>
@@ -12119,7 +12111,7 @@
         <v>70</v>
       </c>
       <c r="Z108" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AA108"/>
       <c r="AB108"/>
@@ -12131,7 +12123,7 @@
         <v>70</v>
       </c>
       <c r="AF108" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="109">
@@ -12139,7 +12131,7 @@
         <v>45300</v>
       </c>
       <c r="B109" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C109" t="n">
         <v>0.1</v>
@@ -12148,7 +12140,7 @@
         <v>75</v>
       </c>
       <c r="E109" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F109" t="n">
         <v>0.1</v>
@@ -12157,7 +12149,7 @@
         <v>75</v>
       </c>
       <c r="H109" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I109" t="n">
         <v>0.1</v>
@@ -12166,7 +12158,7 @@
         <v>75</v>
       </c>
       <c r="K109" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L109" t="n">
         <v>0.1</v>
@@ -12175,7 +12167,7 @@
         <v>75</v>
       </c>
       <c r="N109" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O109" t="n">
         <v>0.1</v>
@@ -12184,7 +12176,7 @@
         <v>75</v>
       </c>
       <c r="Q109" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="R109" t="n">
         <v>0</v>
@@ -12237,7 +12229,7 @@
         <v>45329</v>
       </c>
       <c r="B110" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C110" t="n">
         <v>0.2</v>
@@ -12335,7 +12327,7 @@
         <v>45362</v>
       </c>
       <c r="B111" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C111" t="n">
         <v>0.2</v>
@@ -12433,7 +12425,7 @@
         <v>45392</v>
       </c>
       <c r="B112" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C112" t="n">
         <v>0.2</v>
@@ -12531,7 +12523,7 @@
         <v>45425</v>
       </c>
       <c r="B113" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C113" t="n">
         <v>0.1</v>
@@ -12629,7 +12621,7 @@
         <v>45453</v>
       </c>
       <c r="B114" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C114" t="n">
         <v>0.2</v>
@@ -12727,7 +12719,7 @@
         <v>45482</v>
       </c>
       <c r="B115" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C115" t="n">
         <v>0.1</v>
@@ -12736,7 +12728,7 @@
         <v>75</v>
       </c>
       <c r="E115" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F115" t="n">
         <v>0.1</v>
@@ -12745,7 +12737,7 @@
         <v>75</v>
       </c>
       <c r="H115" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I115" t="n">
         <v>0.1</v>
@@ -12754,7 +12746,7 @@
         <v>75</v>
       </c>
       <c r="K115" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L115" t="n">
         <v>0</v>
@@ -12763,7 +12755,7 @@
         <v>60</v>
       </c>
       <c r="N115" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O115" t="n">
         <v>0</v>
@@ -12772,7 +12764,7 @@
         <v>60</v>
       </c>
       <c r="Q115" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R115" t="n">
         <v>0.1</v>
@@ -12825,7 +12817,7 @@
         <v>45512</v>
       </c>
       <c r="B116" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C116" t="n">
         <v>-0.2</v>
@@ -12834,7 +12826,7 @@
         <v>75</v>
       </c>
       <c r="E116" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F116" t="n">
         <v>-0.2</v>
@@ -12843,7 +12835,7 @@
         <v>75</v>
       </c>
       <c r="H116" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I116" t="n">
         <v>-0.2</v>
@@ -12852,7 +12844,7 @@
         <v>75</v>
       </c>
       <c r="K116" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L116" t="n">
         <v>-0.2</v>
@@ -12861,7 +12853,7 @@
         <v>75</v>
       </c>
       <c r="N116" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O116" t="n">
         <v>-0.2</v>
@@ -12870,7 +12862,7 @@
         <v>75</v>
       </c>
       <c r="Q116" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="R116" t="n">
         <v>-0.2</v>
@@ -12879,7 +12871,7 @@
         <v>80</v>
       </c>
       <c r="T116" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="U116" t="n">
         <v>-0.2</v>
@@ -12888,7 +12880,7 @@
         <v>80</v>
       </c>
       <c r="W116" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="X116" t="n">
         <v>-0.2</v>
@@ -12897,7 +12889,7 @@
         <v>75</v>
       </c>
       <c r="Z116" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AA116" t="n">
         <v>-0.2</v>
@@ -12906,7 +12898,7 @@
         <v>75</v>
       </c>
       <c r="AC116" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AD116" t="n">
         <v>-0.2</v>
@@ -12915,7 +12907,7 @@
         <v>75</v>
       </c>
       <c r="AF116" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="117">
@@ -12923,7 +12915,7 @@
         <v>45544</v>
       </c>
       <c r="B117" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -12932,7 +12924,7 @@
         <v>60</v>
       </c>
       <c r="E117" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -12941,7 +12933,7 @@
         <v>60</v>
       </c>
       <c r="H117" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -12950,7 +12942,7 @@
         <v>60</v>
       </c>
       <c r="K117" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L117" t="n">
         <v>0.1</v>
@@ -12977,7 +12969,7 @@
         <v>65</v>
       </c>
       <c r="T117" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U117" t="n">
         <v>-0.1</v>
@@ -12986,7 +12978,7 @@
         <v>65</v>
       </c>
       <c r="W117" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="X117" t="n">
         <v>0</v>
@@ -12995,7 +12987,7 @@
         <v>60</v>
       </c>
       <c r="Z117" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AA117" t="n">
         <v>0</v>
@@ -13004,7 +12996,7 @@
         <v>60</v>
       </c>
       <c r="AC117" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AD117" t="n">
         <v>0</v>
@@ -13013,7 +13005,7 @@
         <v>60</v>
       </c>
       <c r="AF117" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="118">
@@ -13021,7 +13013,7 @@
         <v>45572</v>
       </c>
       <c r="B118" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -13030,7 +13022,7 @@
         <v>70</v>
       </c>
       <c r="E118" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -13039,7 +13031,7 @@
         <v>70</v>
       </c>
       <c r="H118" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -13048,7 +13040,7 @@
         <v>70</v>
       </c>
       <c r="K118" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L118" t="n">
         <v>-0.1</v>
@@ -13057,7 +13049,7 @@
         <v>85</v>
       </c>
       <c r="N118" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O118" t="n">
         <v>-0.1</v>
@@ -13066,7 +13058,7 @@
         <v>85</v>
       </c>
       <c r="Q118" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="R118" t="n">
         <v>0</v>
@@ -13093,7 +13085,7 @@
         <v>75</v>
       </c>
       <c r="Z118" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AA118" t="n">
         <v>-0.1</v>
@@ -13102,7 +13094,7 @@
         <v>75</v>
       </c>
       <c r="AC118" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AD118" t="n">
         <v>-0.1</v>
@@ -13111,7 +13103,7 @@
         <v>75</v>
       </c>
       <c r="AF118" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="119">
@@ -13119,7 +13111,7 @@
         <v>45607</v>
       </c>
       <c r="B119" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -13128,7 +13120,7 @@
         <v>55</v>
       </c>
       <c r="E119" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F119" t="n">
         <v>-0.1</v>
@@ -13155,7 +13147,7 @@
         <v>55</v>
       </c>
       <c r="N119" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O119" t="n">
         <v>-0.1</v>
@@ -13164,7 +13156,7 @@
         <v>55</v>
       </c>
       <c r="Q119" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R119" t="n">
         <v>-0.1</v>
@@ -13173,7 +13165,7 @@
         <v>65</v>
       </c>
       <c r="T119" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U119" t="n">
         <v>-0.1</v>
@@ -13182,7 +13174,7 @@
         <v>65</v>
       </c>
       <c r="W119" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="X119" t="n">
         <v>-0.1</v>
@@ -13191,7 +13183,7 @@
         <v>55</v>
       </c>
       <c r="Z119" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AA119" t="n">
         <v>-0.1</v>
@@ -13200,7 +13192,7 @@
         <v>55</v>
       </c>
       <c r="AC119" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AD119" t="n">
         <v>-0.1</v>
@@ -13209,7 +13201,7 @@
         <v>55</v>
       </c>
       <c r="AF119" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="120">
@@ -13217,7 +13209,7 @@
         <v>45635</v>
       </c>
       <c r="B120" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C120" t="n">
         <v>-0.1</v>
@@ -13226,7 +13218,7 @@
         <v>65</v>
       </c>
       <c r="E120" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F120" t="n">
         <v>-0.1</v>
@@ -13235,7 +13227,7 @@
         <v>65</v>
       </c>
       <c r="H120" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I120" t="n">
         <v>-0.1</v>
@@ -13244,7 +13236,7 @@
         <v>65</v>
       </c>
       <c r="K120" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
@@ -13271,7 +13263,7 @@
         <v>45</v>
       </c>
       <c r="T120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="U120" t="n">
         <v>0</v>
@@ -13280,7 +13272,7 @@
         <v>45</v>
       </c>
       <c r="W120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="X120" t="n">
         <v>-0.1</v>
@@ -13289,7 +13281,7 @@
         <v>65</v>
       </c>
       <c r="Z120" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AA120" t="n">
         <v>-0.1</v>
@@ -13298,7 +13290,7 @@
         <v>65</v>
       </c>
       <c r="AC120" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AD120" t="n">
         <v>-0.1</v>
@@ -13307,7 +13299,7 @@
         <v>65</v>
       </c>
       <c r="AF120" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="121">
@@ -13315,7 +13307,7 @@
         <v>45669</v>
       </c>
       <c r="B121" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C121" t="n">
         <v>-0.1</v>
@@ -13324,7 +13316,7 @@
         <v>75</v>
       </c>
       <c r="E121" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F121" t="n">
         <v>-0.1</v>
@@ -13333,7 +13325,7 @@
         <v>75</v>
       </c>
       <c r="H121" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I121" t="n">
         <v>-0.1</v>
@@ -13342,7 +13334,7 @@
         <v>75</v>
       </c>
       <c r="K121" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L121" t="n">
         <v>-0.1</v>
@@ -13351,7 +13343,7 @@
         <v>80</v>
       </c>
       <c r="N121" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O121" t="n">
         <v>-0.1</v>
@@ -13360,7 +13352,7 @@
         <v>80</v>
       </c>
       <c r="Q121" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="R121" t="n">
         <v>-0.1</v>
@@ -13369,7 +13361,7 @@
         <v>85</v>
       </c>
       <c r="T121" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="U121" t="n">
         <v>-0.1</v>
@@ -13378,7 +13370,7 @@
         <v>85</v>
       </c>
       <c r="W121" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="X121" t="n">
         <v>-0.1</v>
@@ -13387,7 +13379,7 @@
         <v>80</v>
       </c>
       <c r="Z121" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AA121" t="n">
         <v>-0.1</v>
@@ -13396,7 +13388,7 @@
         <v>80</v>
       </c>
       <c r="AC121" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD121" t="n">
         <v>-0.1</v>
@@ -13405,7 +13397,7 @@
         <v>80</v>
       </c>
       <c r="AF121" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="122">
@@ -13413,7 +13405,7 @@
         <v>45698</v>
       </c>
       <c r="B122" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C122" t="n">
         <v>-0.1</v>
@@ -13422,7 +13414,7 @@
         <v>65</v>
       </c>
       <c r="E122" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F122" t="n">
         <v>-0.1</v>
@@ -13431,7 +13423,7 @@
         <v>65</v>
       </c>
       <c r="H122" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I122" t="n">
         <v>-0.1</v>
@@ -13440,7 +13432,7 @@
         <v>65</v>
       </c>
       <c r="K122" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L122" t="n">
         <v>-0.1</v>
@@ -13449,7 +13441,7 @@
         <v>75</v>
       </c>
       <c r="N122" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O122" t="n">
         <v>-0.1</v>
@@ -13458,7 +13450,7 @@
         <v>75</v>
       </c>
       <c r="Q122" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="R122" t="n">
         <v>-0.1</v>
@@ -13467,7 +13459,7 @@
         <v>65</v>
       </c>
       <c r="T122" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U122" t="n">
         <v>-0.1</v>
@@ -13476,7 +13468,7 @@
         <v>65</v>
       </c>
       <c r="W122" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="X122" t="n">
         <v>-0.1</v>
@@ -13485,7 +13477,7 @@
         <v>65</v>
       </c>
       <c r="Z122" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AA122" t="n">
         <v>-0.1</v>
@@ -13494,7 +13486,7 @@
         <v>65</v>
       </c>
       <c r="AC122" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AD122" t="n">
         <v>-0.1</v>
@@ -13503,7 +13495,7 @@
         <v>65</v>
       </c>
       <c r="AF122" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="123">
@@ -13511,7 +13503,7 @@
         <v>45727</v>
       </c>
       <c r="B123" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C123" t="n">
         <v>0.2</v>
@@ -13609,7 +13601,7 @@
         <v>45754</v>
       </c>
       <c r="B124" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C124" t="n">
         <v>0.1</v>
@@ -13618,7 +13610,7 @@
         <v>75</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F124" t="n">
         <v>0.1</v>
@@ -13627,7 +13619,7 @@
         <v>75</v>
       </c>
       <c r="H124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I124" t="n">
         <v>0.1</v>
@@ -13636,7 +13628,7 @@
         <v>75</v>
       </c>
       <c r="K124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L124" t="n">
         <v>0.1</v>
@@ -13663,7 +13655,7 @@
         <v>85</v>
       </c>
       <c r="T124" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="U124" t="n">
         <v>-0.1</v>
@@ -13672,7 +13664,7 @@
         <v>85</v>
       </c>
       <c r="W124" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="X124" t="n">
         <v>-0.1</v>
@@ -13681,7 +13673,7 @@
         <v>75</v>
       </c>
       <c r="Z124" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AA124" t="n">
         <v>-0.1</v>
@@ -13690,7 +13682,7 @@
         <v>75</v>
       </c>
       <c r="AC124" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AD124" t="n">
         <v>-0.1</v>
@@ -13699,7 +13691,7 @@
         <v>75</v>
       </c>
       <c r="AF124" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="125">
@@ -13707,7 +13699,7 @@
         <v>45789</v>
       </c>
       <c r="B125" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C125" t="n">
         <v>0.2</v>
@@ -13805,7 +13797,7 @@
         <v>45818</v>
       </c>
       <c r="B126" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C126" t="n">
         <v>-0.1</v>
@@ -13814,7 +13806,7 @@
         <v>65</v>
       </c>
       <c r="E126" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F126" t="n">
         <v>-0.1</v>
@@ -13823,7 +13815,7 @@
         <v>65</v>
       </c>
       <c r="H126" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I126" t="n">
         <v>-0.1</v>
@@ -13832,7 +13824,7 @@
         <v>65</v>
       </c>
       <c r="K126" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L126" t="n">
         <v>0.1</v>
@@ -13859,7 +13851,7 @@
         <v>65</v>
       </c>
       <c r="T126" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U126" t="n">
         <v>-0.1</v>
@@ -13868,7 +13860,7 @@
         <v>65</v>
       </c>
       <c r="W126" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="X126" t="n">
         <v>-0.1</v>
@@ -13877,7 +13869,7 @@
         <v>70</v>
       </c>
       <c r="Z126" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AA126" t="n">
         <v>-0.1</v>
@@ -13886,7 +13878,7 @@
         <v>70</v>
       </c>
       <c r="AC126" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AD126" t="n">
         <v>-0.1</v>
@@ -13895,7 +13887,7 @@
         <v>70</v>
       </c>
       <c r="AF126" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="127">
@@ -13903,7 +13895,7 @@
         <v>45846</v>
       </c>
       <c r="B127" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C127" t="n">
         <v>-0.1</v>
@@ -13912,7 +13904,7 @@
         <v>85</v>
       </c>
       <c r="E127" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F127" t="n">
         <v>-0.1</v>
@@ -13921,7 +13913,7 @@
         <v>85</v>
       </c>
       <c r="H127" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I127" t="n">
         <v>-0.1</v>
@@ -13930,7 +13922,7 @@
         <v>85</v>
       </c>
       <c r="K127" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L127" t="n">
         <v>-0.1</v>
@@ -13939,7 +13931,7 @@
         <v>75</v>
       </c>
       <c r="N127" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O127" t="n">
         <v>-0.1</v>
@@ -13948,7 +13940,7 @@
         <v>75</v>
       </c>
       <c r="Q127" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="R127" t="n">
         <v>-0.1</v>
@@ -13957,7 +13949,7 @@
         <v>75</v>
       </c>
       <c r="T127" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="U127" t="n">
         <v>-0.1</v>
@@ -13966,7 +13958,7 @@
         <v>75</v>
       </c>
       <c r="W127" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="X127" t="n">
         <v>-0.1</v>
@@ -13975,7 +13967,7 @@
         <v>75</v>
       </c>
       <c r="Z127" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AA127" t="n">
         <v>-0.1</v>
@@ -13984,7 +13976,7 @@
         <v>75</v>
       </c>
       <c r="AC127" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AD127" t="n">
         <v>-0.1</v>
@@ -13993,7 +13985,7 @@
         <v>75</v>
       </c>
       <c r="AF127" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128">
@@ -14001,7 +13993,7 @@
         <v>45879</v>
       </c>
       <c r="B128" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -14037,7 +14029,7 @@
         <v>55</v>
       </c>
       <c r="N128" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O128" t="n">
         <v>0.1</v>
@@ -14046,7 +14038,7 @@
         <v>55</v>
       </c>
       <c r="Q128" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="R128" t="n">
         <v>0.1</v>
@@ -14099,7 +14091,7 @@
         <v>45908</v>
       </c>
       <c r="B129" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C129" t="n">
         <v>-0.1</v>
@@ -14108,7 +14100,7 @@
         <v>65</v>
       </c>
       <c r="E129" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F129" t="n">
         <v>-0.1</v>
@@ -14117,7 +14109,7 @@
         <v>65</v>
       </c>
       <c r="H129" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I129" t="n">
         <v>-0.1</v>
@@ -14126,7 +14118,7 @@
         <v>65</v>
       </c>
       <c r="K129" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L129" t="n">
         <v>-0.1</v>
@@ -14135,7 +14127,7 @@
         <v>65</v>
       </c>
       <c r="N129" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O129" t="n">
         <v>-0.1</v>
@@ -14144,7 +14136,7 @@
         <v>65</v>
       </c>
       <c r="Q129" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R129" t="n">
         <v>0.1</v>
@@ -14171,7 +14163,7 @@
         <v>70</v>
       </c>
       <c r="Z129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AA129" t="n">
         <v>-0.1</v>
@@ -14180,7 +14172,7 @@
         <v>70</v>
       </c>
       <c r="AC129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AD129" t="n">
         <v>-0.1</v>
@@ -14189,7 +14181,7 @@
         <v>70</v>
       </c>
       <c r="AF129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130">
@@ -14197,7 +14189,7 @@
         <v>45938</v>
       </c>
       <c r="B130" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C130" t="n">
         <v>0.1</v>
@@ -14233,7 +14225,7 @@
         <v>75</v>
       </c>
       <c r="N130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O130" t="n">
         <v>-0.1</v>
@@ -14242,7 +14234,7 @@
         <v>75</v>
       </c>
       <c r="Q130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="R130" t="n">
         <v>-0.1</v>
@@ -14251,7 +14243,7 @@
         <v>75</v>
       </c>
       <c r="T130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="U130" t="n">
         <v>-0.1</v>
@@ -14260,7 +14252,7 @@
         <v>75</v>
       </c>
       <c r="W130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="X130" t="n">
         <v>-0.1</v>
@@ -14269,7 +14261,7 @@
         <v>75</v>
       </c>
       <c r="Z130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AA130" t="n">
         <v>-0.1</v>
@@ -14278,7 +14270,7 @@
         <v>75</v>
       </c>
       <c r="AC130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AD130" t="n">
         <v>-0.1</v>
@@ -14287,7 +14279,7 @@
         <v>75</v>
       </c>
       <c r="AF130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131">
@@ -14295,7 +14287,7 @@
         <v>45972</v>
       </c>
       <c r="B131" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C131" t="n">
         <v>0.1</v>
@@ -14331,7 +14323,7 @@
         <v>60</v>
       </c>
       <c r="N131" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O131" t="n">
         <v>0</v>
@@ -14340,7 +14332,7 @@
         <v>60</v>
       </c>
       <c r="Q131" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R131" t="n">
         <v>0</v>
@@ -14349,7 +14341,7 @@
         <v>45</v>
       </c>
       <c r="T131" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="U131" t="n">
         <v>0</v>
@@ -14358,7 +14350,7 @@
         <v>45</v>
       </c>
       <c r="W131" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="X131" t="n">
         <v>-0.1</v>
@@ -14367,7 +14359,7 @@
         <v>65</v>
       </c>
       <c r="Z131" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AA131" t="n">
         <v>-0.1</v>
@@ -14376,7 +14368,7 @@
         <v>65</v>
       </c>
       <c r="AC131" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AD131" t="n">
         <v>-0.1</v>
@@ -14385,7 +14377,7 @@
         <v>65</v>
       </c>
       <c r="AF131" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
